--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/A/15/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/A/15/seed5/result_data_RandomForest.xlsx
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.58460000000001</v>
+        <v>-21.58930000000001</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.75899999999999</v>
+        <v>-21.8019</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.24619999999999</v>
+        <v>-21.2682</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-20.0103</v>
+        <v>-20.2051</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-19.73649999999999</v>
+        <v>-19.6736</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.7747</v>
+        <v>-21.86680000000001</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.7466</v>
+        <v>-21.70200000000001</v>
       </c>
       <c r="B54" t="n">
         <v>6.01</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.4043</v>
+        <v>-22.56920000000002</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-22.14820000000001</v>
+        <v>-22.2008</v>
       </c>
       <c r="B56" t="n">
         <v>4.42</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.40709999999998</v>
+        <v>-21.49759999999997</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.57869999999998</v>
+        <v>-21.56109999999997</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-21.8426</v>
+        <v>-21.62949999999999</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.7939</v>
+        <v>-21.71359999999999</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-22.0916</v>
+        <v>-22.13210000000002</v>
       </c>
       <c r="B86" t="n">
         <v>4.69</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.42410000000001</v>
+        <v>-21.45170000000001</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.28419999999999</v>
+        <v>-21.10879999999999</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-20.12239999999999</v>
+        <v>-20.15439999999999</v>
       </c>
       <c r="B99" t="n">
         <v>8.42</v>
